--- a/src/demos/zdemo_excel15_05.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_05.w3mi.data.xlsx
@@ -328,7 +328,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="C4:E8"/>
+  <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -336,10 +336,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C4">
         <v>100</v>
       </c>
@@ -347,7 +347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -355,7 +355,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C6">
         <v>150</v>
       </c>
@@ -363,7 +363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C7">
         <v>10</v>
       </c>
@@ -371,7 +371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C8">
         <v>500</v>
       </c>

--- a/src/demos/zdemo_excel15_05.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_05.w3mi.data.xlsx
@@ -384,6 +384,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C4:C8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>

--- a/src/demos/zdemo_excel15_05.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_05.w3mi.data.xlsx
@@ -179,7 +179,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -317,9 +317,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
